--- a/BackTest/2020-01-22 BackTest LTC.xlsx
+++ b/BackTest/2020-01-22 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-870.8917222000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-870.8917222000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-870.8917222000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-870.0688222000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-852.3488222000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-864.2174222000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-864.2174222000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-861.9361222000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-838.9038916800001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-838.8138916800001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-842.3858916800001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-842.3858916800001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-843.3128916800001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-791.8492916800001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-842.80639168</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-782.0214916800001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-792.14209168</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-772.14209168</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1034.06769168</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1007.62089168</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1007.62089168</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1007.62089168</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1013.81709168</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1043.91709168</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1043.91709168</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1129.44899168</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1079.87329168</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -3058,14 +3058,10 @@
         <v>-907.3474159599997</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>64850</v>
-      </c>
-      <c r="J81" t="n">
-        <v>64850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3095,19 +3091,11 @@
         <v>-907.3474159599997</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>65050</v>
-      </c>
-      <c r="J82" t="n">
-        <v>64850</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3136,19 +3124,11 @@
         <v>-894.2829159599997</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>65050</v>
-      </c>
-      <c r="J83" t="n">
-        <v>64850</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3177,14 +3157,10 @@
         <v>-894.2829159599997</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>65150</v>
-      </c>
-      <c r="J84" t="n">
-        <v>65150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3214,19 +3190,11 @@
         <v>-894.2829159599997</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>65150</v>
-      </c>
-      <c r="J85" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3255,19 +3223,11 @@
         <v>-916.7729159599998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>65150</v>
-      </c>
-      <c r="J86" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3296,14 +3256,10 @@
         <v>-883.9931159599997</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>65000</v>
-      </c>
-      <c r="J87" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3333,19 +3289,11 @@
         <v>-886.9931159599997</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>65050</v>
-      </c>
-      <c r="J88" t="n">
-        <v>65000</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3374,19 +3322,11 @@
         <v>-883.5953159599998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>64950</v>
-      </c>
-      <c r="J89" t="n">
-        <v>65000</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3415,14 +3355,10 @@
         <v>-883.5953159599998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>65100</v>
-      </c>
-      <c r="J90" t="n">
-        <v>65100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3452,19 +3388,11 @@
         <v>-883.4523159599997</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>65100</v>
-      </c>
-      <c r="J91" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3493,19 +3421,11 @@
         <v>-905.4523159599997</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>65150</v>
-      </c>
-      <c r="J92" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3537,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3573,19 +3487,11 @@
         <v>-919.4106159599997</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>65050</v>
-      </c>
-      <c r="J94" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3614,19 +3520,11 @@
         <v>-900.0342159599998</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>65000</v>
-      </c>
-      <c r="J95" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3655,19 +3553,11 @@
         <v>-913.6733159599997</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>65050</v>
-      </c>
-      <c r="J96" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3696,19 +3586,11 @@
         <v>-899.2165159599997</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>65000</v>
-      </c>
-      <c r="J97" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3737,19 +3619,11 @@
         <v>-930.1229159599997</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65200</v>
-      </c>
-      <c r="J98" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3778,19 +3652,11 @@
         <v>-930.1229159599997</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>65100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3819,19 +3685,11 @@
         <v>-930.0496159599996</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65100</v>
-      </c>
-      <c r="J100" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3863,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3899,19 +3751,11 @@
         <v>-930.3729159599997</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>65100</v>
-      </c>
-      <c r="J102" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3940,19 +3784,11 @@
         <v>-886.4206159599996</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>65100</v>
-      </c>
-      <c r="J103" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3981,19 +3817,11 @@
         <v>-886.4206159599996</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>65200</v>
-      </c>
-      <c r="J104" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4022,19 +3850,11 @@
         <v>-887.7606159599997</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>65200</v>
-      </c>
-      <c r="J105" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4063,19 +3883,11 @@
         <v>-887.7284159599997</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>65150</v>
-      </c>
-      <c r="J106" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4107,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4146,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4185,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4224,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4263,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4302,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4341,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4380,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4419,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4458,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4497,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4536,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4575,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4614,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4653,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4692,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4731,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4770,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4806,19 +4510,13 @@
         <v>-678.4461732299997</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>1.003448540706605</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
     </row>
@@ -4845,7 +4543,7 @@
         <v>-676.6443732299997</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4911,7 +4609,7 @@
         <v>-672.9733732299997</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5043,7 +4741,7 @@
         <v>-643.4991732299997</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5076,7 +4774,7 @@
         <v>-653.5607732299997</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5109,7 +4807,7 @@
         <v>-638.6398732299997</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5142,7 +4840,7 @@
         <v>-644.0318732299997</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5175,7 +4873,7 @@
         <v>-644.0318732299997</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5637,14 +5335,10 @@
         <v>-771.7682732299996</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>65150</v>
-      </c>
-      <c r="J150" t="n">
-        <v>65150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5677,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5716,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5818,14 +5500,10 @@
         <v>-883.7400732299996</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>65000</v>
-      </c>
-      <c r="J155" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
@@ -5858,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>65000</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5897,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>65000</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -7781,14 +7447,10 @@
         <v>-1068.61436109</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>65200</v>
-      </c>
-      <c r="J214" t="n">
-        <v>65200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
@@ -7818,19 +7480,11 @@
         <v>-1068.61436109</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>65200</v>
-      </c>
-      <c r="J215" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7859,19 +7513,11 @@
         <v>-1068.61436109</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>65200</v>
-      </c>
-      <c r="J216" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7903,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7939,19 +7579,11 @@
         <v>-2928.61436109</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>65200</v>
-      </c>
-      <c r="J218" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7980,19 +7612,11 @@
         <v>-2889.73436109</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>64850</v>
-      </c>
-      <c r="J219" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8024,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8060,19 +7678,11 @@
         <v>-2850.85436109</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>65200</v>
-      </c>
-      <c r="J221" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8101,19 +7711,11 @@
         <v>-2573.92856109</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>65200</v>
-      </c>
-      <c r="J222" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8145,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8184,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8223,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8262,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8298,15 +7876,15 @@
         <v>-2260.94646109</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>65200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>65250</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -8337,14 +7915,12 @@
         <v>-2260.94646109</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>65200</v>
       </c>
-      <c r="J228" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8381,9 +7957,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8420,9 +7994,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8456,14 +8028,10 @@
         <v>-2142.43406109</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>65400</v>
-      </c>
-      <c r="J231" t="n">
-        <v>65200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8497,14 +8065,10 @@
         <v>-1742.43406109</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>65400</v>
-      </c>
-      <c r="J232" t="n">
-        <v>65200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8541,9 +8105,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8580,9 +8142,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8619,9 +8179,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8658,9 +8216,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8697,9 +8253,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8736,9 +8290,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8775,9 +8327,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8814,9 +8364,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8853,9 +8401,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8892,9 +8438,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8931,9 +8475,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8970,9 +8512,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9009,9 +8549,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9048,9 +8586,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9087,9 +8623,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9123,19 +8657,17 @@
         <v>-1423.96572273</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>65200</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.001134969325153</v>
+        <v>1</v>
       </c>
       <c r="M248" t="inlineStr"/>
     </row>
@@ -9166,7 +8698,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9199,7 +8735,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9232,7 +8772,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9265,7 +8809,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9298,7 +8846,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9331,7 +8883,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9364,7 +8920,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9397,7 +8957,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9430,7 +8994,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9463,7 +9031,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9496,7 +9068,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9529,7 +9105,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9562,7 +9142,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9595,7 +9179,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +9216,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9657,11 +9249,15 @@
         <v>-2221.82070008</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9690,11 +9286,15 @@
         <v>-2178.41520008</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9723,11 +9323,15 @@
         <v>-2227.06180008</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9756,11 +9360,15 @@
         <v>-2270.033500080001</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9793,7 +9401,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9822,11 +9434,15 @@
         <v>-2270.033500080001</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9855,11 +9471,15 @@
         <v>-2269.88210008</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9888,11 +9508,15 @@
         <v>-2283.65330008</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9921,11 +9545,15 @@
         <v>-2283.65330008</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9954,11 +9582,15 @@
         <v>-2280.85330008</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9991,7 +9623,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10024,7 +9660,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10057,7 +9697,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10090,7 +9734,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10123,7 +9771,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10156,7 +9808,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10189,7 +9845,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10222,7 +9882,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10255,7 +9919,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10288,7 +9956,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10321,7 +9993,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10354,7 +10030,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10387,7 +10067,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10420,7 +10104,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10453,7 +10141,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10486,7 +10178,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10519,7 +10215,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10552,7 +10252,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10585,7 +10289,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10618,7 +10326,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10651,7 +10363,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10684,7 +10400,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10717,7 +10437,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10750,7 +10474,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10783,7 +10511,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10816,7 +10548,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10849,7 +10585,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10882,7 +10622,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10915,7 +10659,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10948,7 +10696,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10981,7 +10733,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11014,7 +10770,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11047,7 +10807,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11080,7 +10844,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11113,7 +10881,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11146,7 +10918,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11179,7 +10955,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11208,11 +10988,15 @@
         <v>-2027.7671389</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11241,11 +11025,15 @@
         <v>-2027.7671389</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11278,7 +11066,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11307,11 +11099,15 @@
         <v>-2036.3163389</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11340,11 +11136,15 @@
         <v>-2036.3163389</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11373,11 +11173,15 @@
         <v>-2036.3163389</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11406,11 +11210,15 @@
         <v>-2036.3163389</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11443,7 +11251,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11472,11 +11284,15 @@
         <v>-2025.9520389</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11509,7 +11325,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11538,11 +11358,15 @@
         <v>-2382.398238899999</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11571,11 +11395,15 @@
         <v>-2382.398238899999</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11604,11 +11432,15 @@
         <v>-2391.998238899999</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11641,7 +11473,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11674,7 +11510,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11707,7 +11547,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11740,7 +11584,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11773,7 +11621,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11806,7 +11658,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11839,7 +11695,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11872,7 +11732,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11905,7 +11769,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11938,7 +11806,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11971,7 +11843,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12004,7 +11880,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12037,7 +11917,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12070,7 +11954,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12103,7 +11991,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12136,7 +12028,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12169,7 +12065,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12202,7 +12102,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12235,7 +12139,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12268,7 +12176,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12301,7 +12213,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12334,7 +12250,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12367,7 +12287,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12400,7 +12324,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12433,7 +12361,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12466,7 +12398,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12499,7 +12435,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12532,7 +12472,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12565,7 +12509,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12598,7 +12546,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12631,7 +12583,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12664,7 +12620,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12697,7 +12657,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12730,7 +12694,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12763,7 +12731,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12796,7 +12768,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12829,7 +12805,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12862,7 +12842,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12895,7 +12879,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12928,7 +12916,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12961,7 +12953,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12994,7 +12990,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13027,7 +13027,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13060,7 +13064,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13093,7 +13101,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13126,7 +13138,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13159,7 +13175,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13192,7 +13212,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13225,7 +13249,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13258,7 +13286,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13291,7 +13323,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13324,7 +13360,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13357,7 +13397,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13390,7 +13434,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13423,7 +13471,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13456,7 +13508,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13489,7 +13545,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13522,7 +13582,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13555,7 +13619,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13588,7 +13656,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13621,7 +13693,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13654,7 +13730,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13687,7 +13767,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13720,7 +13804,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13753,7 +13841,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13786,7 +13878,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13819,7 +13915,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13852,7 +13952,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13885,7 +13989,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13918,7 +14026,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13951,7 +14063,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13984,7 +14100,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14017,7 +14137,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14050,7 +14174,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14079,11 +14207,17 @@
         <v>-2855.9309389</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>65400</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14112,11 +14246,17 @@
         <v>-2855.9309389</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>65300</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14145,11 +14285,17 @@
         <v>-2855.863091579999</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>65300</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14178,11 +14324,17 @@
         <v>-2855.863091579999</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>65500</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14215,7 +14367,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14248,7 +14404,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14281,7 +14441,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14314,7 +14478,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14347,7 +14515,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14380,7 +14552,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14413,7 +14589,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14446,7 +14626,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14479,7 +14663,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14512,7 +14700,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14545,7 +14737,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14578,7 +14774,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14611,7 +14811,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14644,7 +14848,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14677,7 +14885,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14710,7 +14922,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14743,7 +14959,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14776,7 +14996,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14805,11 +15029,15 @@
         <v>-2655.72239428</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14842,7 +15070,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14875,7 +15107,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14904,11 +15140,15 @@
         <v>-2783.27099428</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14937,11 +15177,15 @@
         <v>-2883.27099428</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14970,11 +15214,15 @@
         <v>-2960.35529428</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15003,11 +15251,15 @@
         <v>-2960.35529428</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15040,7 +15292,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15073,7 +15329,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15106,7 +15366,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15139,7 +15403,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15172,7 +15440,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15205,7 +15477,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15238,7 +15514,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15271,7 +15551,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15304,7 +15588,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15333,11 +15621,17 @@
         <v>-3026.75358881</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>65500</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15366,11 +15660,17 @@
         <v>-3149.28028881</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>65550</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15399,11 +15699,17 @@
         <v>-3138.04998881</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>65400</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15432,11 +15738,17 @@
         <v>-3152.81608881</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>65600</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15465,11 +15777,17 @@
         <v>-3209.77728881</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>65450</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15498,11 +15816,17 @@
         <v>-3209.77728881</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>65350</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15531,11 +15855,17 @@
         <v>-3165.08738881</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>65350</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15564,11 +15894,17 @@
         <v>-3156.27658881</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>65450</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15597,11 +15933,17 @@
         <v>-3156.33448881</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>65500</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15630,11 +15972,17 @@
         <v>-3200.927488809999</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>65400</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15663,11 +16011,17 @@
         <v>-3195.23018881</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>65350</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15696,11 +16050,17 @@
         <v>-3195.16239324</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>65400</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15729,11 +16089,17 @@
         <v>-3195.16239324</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>65550</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15762,11 +16128,17 @@
         <v>-3191.47669324</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>65550</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15795,11 +16167,17 @@
         <v>-3190.46069324</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>65600</v>
+      </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15828,11 +16206,17 @@
         <v>-3190.46069324</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>65700</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15861,11 +16245,17 @@
         <v>-3242.71719324</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>65700</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15894,11 +16284,17 @@
         <v>-3242.71719324</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>65550</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15927,11 +16323,17 @@
         <v>-3235.60549324</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>65550</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15960,11 +16362,17 @@
         <v>-3235.60549324</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>65750</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15997,7 +16405,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16030,7 +16442,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16063,7 +16479,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16096,7 +16516,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16129,7 +16553,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16162,7 +16590,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16195,7 +16627,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16228,7 +16664,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16257,11 +16697,15 @@
         <v>-3321.676353849999</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16290,11 +16734,15 @@
         <v>-3321.676353849999</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16323,11 +16771,15 @@
         <v>-3321.676353849999</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16356,11 +16808,15 @@
         <v>-3321.676353849999</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16393,7 +16849,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16426,7 +16886,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16459,7 +16923,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16492,7 +16960,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16525,7 +16997,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16558,7 +17034,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16591,7 +17071,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16624,7 +17108,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16657,7 +17145,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16690,7 +17182,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16723,7 +17219,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16756,7 +17256,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16789,7 +17293,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16822,7 +17330,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16855,7 +17367,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16888,7 +17404,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16921,7 +17441,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16954,7 +17478,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16987,7 +17515,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17020,7 +17552,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17053,7 +17589,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17086,7 +17626,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17119,7 +17663,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17152,7 +17700,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17185,7 +17737,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17218,7 +17774,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17251,7 +17811,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17284,7 +17848,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17317,7 +17885,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17350,7 +17922,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17383,7 +17959,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17416,7 +17996,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17449,7 +18033,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17482,7 +18070,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17515,7 +18107,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17548,7 +18144,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17581,7 +18181,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17614,7 +18218,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17647,7 +18255,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17680,7 +18292,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17713,7 +18329,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17746,7 +18366,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17779,7 +18403,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17812,7 +18440,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17845,7 +18477,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17878,7 +18514,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17911,7 +18551,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17944,7 +18588,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17977,7 +18625,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18010,7 +18662,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18043,7 +18699,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18076,7 +18736,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18109,7 +18773,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18142,7 +18810,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18175,7 +18847,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18208,7 +18884,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18241,7 +18921,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18274,7 +18958,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18307,7 +18995,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18340,7 +19032,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18373,7 +19069,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18406,7 +19106,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18439,7 +19143,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18472,7 +19180,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18505,7 +19217,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18538,7 +19254,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18571,7 +19291,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18604,7 +19328,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18637,7 +19365,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18670,7 +19402,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18703,7 +19439,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18736,7 +19476,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18769,7 +19513,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18802,7 +19550,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18835,7 +19587,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18868,7 +19624,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18901,7 +19661,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18934,7 +19698,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18967,7 +19735,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19000,7 +19772,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19033,7 +19809,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19066,13 +19846,17 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
       <c r="M549" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest LTC.xlsx
+++ b/BackTest/2020-01-22 BackTest LTC.xlsx
@@ -517,7 +517,7 @@
         <v>-870.8917222000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-870.0688222000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-852.3488222000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-864.2174222000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-842.3858916800001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-842.3858916800001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-843.3128916800001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-791.8492916800001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-790.1222916800001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-790.6006916800001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-842.80639168</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-782.0214916800001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-792.14209168</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-772.14209168</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-793.59609168</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-793.59609168</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-668.4461732299997</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-678.4461732299997</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-676.6443732299997</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-676.9733732299997</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-672.9733732299997</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-671.9664732299997</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-671.9664732299997</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-673.8882732299996</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-643.4991732299997</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-653.5607732299997</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-638.6398732299997</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-644.0318732299997</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-644.0318732299997</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-649.7051732299998</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-587.4548732299997</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-628.5451732299997</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1345.36002273</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2372.22657474</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2304.50587474</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-2304.50587474</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2304.74587474</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2299.556274739999</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -13453,10 +13453,14 @@
         <v>-2811.6949389</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>65500</v>
+      </c>
+      <c r="J396" t="n">
+        <v>65500</v>
+      </c>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
@@ -13486,11 +13490,19 @@
         <v>-2853.8606389</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>65450</v>
+      </c>
+      <c r="J397" t="n">
+        <v>65500</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13531,19 @@
         <v>-2855.9309389</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>65400</v>
+      </c>
+      <c r="J398" t="n">
+        <v>65500</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,10 +13572,14 @@
         <v>-2855.9309389</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>65300</v>
+      </c>
+      <c r="J399" t="n">
+        <v>65300</v>
+      </c>
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
@@ -13585,11 +13609,19 @@
         <v>-2855.863091579999</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>65300</v>
+      </c>
+      <c r="J400" t="n">
+        <v>65300</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13650,19 @@
         <v>-2855.863091579999</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>65500</v>
+      </c>
+      <c r="J401" t="n">
+        <v>65300</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +14648,17 @@
         <v>-2964.99929428</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>65800</v>
+      </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14687,17 @@
         <v>-2958.21408881</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>65650</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14726,17 @@
         <v>-2958.21408881</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>65700</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +14765,17 @@
         <v>-3016.57658881</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>65700</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14804,17 @@
         <v>-3028.81418881</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>65600</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14843,17 @@
         <v>-3026.75358881</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>65500</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +14882,17 @@
         <v>-3149.28028881</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>65550</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +14921,17 @@
         <v>-3138.04998881</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>65400</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +14960,17 @@
         <v>-3152.81608881</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>65600</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +14999,17 @@
         <v>-3209.77728881</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>65450</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15038,17 @@
         <v>-3209.77728881</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>65350</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15077,17 @@
         <v>-3165.08738881</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>65350</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15116,17 @@
         <v>-3156.27658881</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>65450</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15155,17 @@
         <v>-3156.33448881</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>65500</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15194,17 @@
         <v>-3200.927488809999</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>65400</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15233,17 @@
         <v>-3195.23018881</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>65350</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15272,17 @@
         <v>-3195.16239324</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>65400</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15311,17 @@
         <v>-3195.16239324</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>65550</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15350,17 @@
         <v>-3191.47669324</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>65550</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +15389,17 @@
         <v>-3190.46069324</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>65600</v>
+      </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +15428,17 @@
         <v>-3190.46069324</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>65700</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +15467,17 @@
         <v>-3242.71719324</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>65700</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +15506,17 @@
         <v>-3242.71719324</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>65550</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15545,17 @@
         <v>-3235.60549324</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>65550</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15584,17 @@
         <v>-3235.60549324</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>65750</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15623,17 @@
         <v>-3235.60549324</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>65750</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15662,17 @@
         <v>-3193.15409324</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>65750</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +15705,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +15742,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +15779,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +15816,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +15853,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +15890,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +15927,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +15964,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +16001,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +16034,17 @@
         <v>-3321.676353849999</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>65900</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16073,17 @@
         <v>-3293.572653849999</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>65900</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +16112,17 @@
         <v>-3293.572653849999</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>65950</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +16155,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +16188,17 @@
         <v>-3293.572653849999</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>65950</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16227,17 @@
         <v>-3410.964353849999</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>65950</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16266,17 @@
         <v>-3272.787553849999</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>65800</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16305,17 @@
         <v>-3135.070648239999</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>65950</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16344,17 @@
         <v>-3135.070648239999</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>66050</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +16387,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +16424,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +16461,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16494,17 @@
         <v>-3211.602648239999</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>65850</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16533,17 @@
         <v>-3211.602648239999</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>65850</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16572,17 @@
         <v>-3049.517848239999</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>65850</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +16615,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +16652,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16685,17 @@
         <v>-3080.974748239999</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>65900</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,11 +16724,17 @@
         <v>-3080.974748239999</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>65900</v>
+      </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +16763,17 @@
         <v>-3079.579048239999</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>65900</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +16806,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,11 +16839,17 @@
         <v>-3087.267948239999</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>66000</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16522,11 +16878,17 @@
         <v>-3087.87124824</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>65950</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16555,11 +16917,17 @@
         <v>-3087.87124824</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>65900</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16588,11 +16956,17 @@
         <v>-3087.87124824</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>65900</v>
+      </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16621,11 +16995,17 @@
         <v>-3119.67764824</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>65900</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16654,11 +17034,17 @@
         <v>-3123.64604824</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>65750</v>
+      </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +17073,17 @@
         <v>-3098.68984824</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>65700</v>
+      </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16720,11 +17112,17 @@
         <v>-2994.68984824</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>65750</v>
+      </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16753,11 +17151,17 @@
         <v>-3107.15894824</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>65850</v>
+      </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16786,11 +17190,17 @@
         <v>-3107.15894824</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>65800</v>
+      </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16819,11 +17229,17 @@
         <v>-3135.462348239999</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>65800</v>
+      </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16852,11 +17268,17 @@
         <v>-3125.462348239999</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>65650</v>
+      </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16885,11 +17307,17 @@
         <v>-3133.746548239999</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>65850</v>
+      </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +17346,17 @@
         <v>-3080.463248239999</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>65650</v>
+      </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +17385,17 @@
         <v>-3081.777548239999</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>65800</v>
+      </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +17424,17 @@
         <v>-3138.517248239999</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>65700</v>
+      </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17463,17 @@
         <v>-3123.33454824</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>65550</v>
+      </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17502,17 @@
         <v>-3123.33454824</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>65700</v>
+      </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +17541,17 @@
         <v>-3123.33454824</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>65700</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17116,11 +17580,17 @@
         <v>-3123.33454824</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>65700</v>
+      </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17149,11 +17619,17 @@
         <v>-3122.808696879999</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>65700</v>
+      </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17182,11 +17658,17 @@
         <v>-3126.894796879999</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>65800</v>
+      </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17215,11 +17697,17 @@
         <v>-2897.068796879999</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>65700</v>
+      </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17248,11 +17736,17 @@
         <v>-2902.021796879999</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>65750</v>
+      </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17281,11 +17775,17 @@
         <v>-2887.288496879999</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>65600</v>
+      </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17318,7 +17818,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17351,7 +17855,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,15 +17888,15 @@
         <v>-3557.55739688</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>65700</v>
-      </c>
-      <c r="J515" t="n">
-        <v>65700</v>
-      </c>
-      <c r="K515" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17422,12 +17930,10 @@
       <c r="I516" t="n">
         <v>65600</v>
       </c>
-      <c r="J516" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L516" t="n">
@@ -17463,9 +17969,7 @@
       <c r="I517" t="n">
         <v>65600</v>
       </c>
-      <c r="J517" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17504,9 +18008,7 @@
       <c r="I518" t="n">
         <v>65700</v>
       </c>
-      <c r="J518" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17540,14 +18042,10 @@
         <v>-3388.91889688</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>65800</v>
-      </c>
-      <c r="J519" t="n">
-        <v>65700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17584,9 +18082,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17623,9 +18119,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17662,9 +18156,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17698,14 +18190,10 @@
         <v>-3513.16879688</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>65850</v>
-      </c>
-      <c r="J523" t="n">
-        <v>65700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17742,9 +18230,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17781,9 +18267,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17820,9 +18304,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17856,14 +18338,10 @@
         <v>-3513.19159688</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>65950</v>
-      </c>
-      <c r="J527" t="n">
-        <v>65700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17900,9 +18378,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17939,9 +18415,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17978,9 +18452,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18017,9 +18489,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18056,9 +18526,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18092,12 +18560,12 @@
         <v>-3517.540596880001</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>65750</v>
+      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18131,12 +18599,12 @@
         <v>-3517.540596880001</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>65750</v>
+      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18170,12 +18638,12 @@
         <v>-3517.540596880001</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>65750</v>
+      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18209,12 +18677,12 @@
         <v>-3517.540596880001</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>65750</v>
+      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18248,12 +18716,12 @@
         <v>-3470.77259688</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>65750</v>
+      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18287,12 +18755,12 @@
         <v>-3470.77259688</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>65800</v>
+      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18326,12 +18794,12 @@
         <v>-3470.77259688</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>65800</v>
+      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18365,12 +18833,12 @@
         <v>-3469.676896880001</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>65800</v>
+      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18404,12 +18872,12 @@
         <v>-3469.676896880001</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>65900</v>
+      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18446,9 +18914,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18482,12 +18948,12 @@
         <v>-3376.29729688</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>65900</v>
+      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18524,9 +18990,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18560,12 +19024,12 @@
         <v>-3311.15089688</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>65900</v>
+      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18599,12 +19063,12 @@
         <v>-3311.15089688</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>65700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>66000</v>
+      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18641,9 +19105,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18680,9 +19142,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18719,9 +19179,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
